--- a/studentsdata.xlsx
+++ b/studentsdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,34 +407,101 @@
         <v>Collage</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>ProductID</v>
       </c>
       <c r="C1" t="str">
-        <v>stu</v>
+        <v>ProductName</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Adress</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>sqm</v>
+      </c>
+      <c r="G1" t="str">
+        <v>bedroom</v>
+      </c>
+      <c r="H1" t="str">
+        <v>bathroom</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Parking</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Postdate</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Tel</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Consent</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Remark</v>
+      </c>
+      <c r="P1" t="str">
+        <v>update</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>regpnru</v>
-      </c>
-      <c r="B2" t="str">
-        <v>pongpanot</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="str">
+        <v>บุรา</v>
+      </c>
+      <c r="D2" t="str">
+        <v>กรุงเทพกรีฑา</v>
+      </c>
+      <c r="E2" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="F2" t="str">
+        <v>100</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4</v>
+      </c>
+      <c r="I2" t="str">
+        <v>3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>7/7/2022</v>
+      </c>
+      <c r="K2" t="str">
+        <v>พงศ์ปณต</v>
+      </c>
+      <c r="L2" t="str">
+        <v>0985496936</v>
+      </c>
+      <c r="M2" t="str">
         <v>1234</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>50</v>
-      </c>
-      <c r="B3" t="str">
-        <v>90</v>
+      <c r="N2" t="str">
+        <v>Success</v>
+      </c>
+      <c r="O2" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
   </ignoredErrors>
 </worksheet>
 </file>